--- a/26. Recherche opérationnelle en Excel/05 - MELANGE - INDUSTRIE MINIERE ET DE PROCESS SEVAUX/C5-Acier-2010.xlsx
+++ b/26. Recherche opérationnelle en Excel/05 - MELANGE - INDUSTRIE MINIERE ET DE PROCESS SEVAUX/C5-Acier-2010.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\www\python-data-science\26. Recherche opérationnelle en Excel\05 - MELANGE - INDUSTRIE MINIERE ET DE PROCESS SEVAUX\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="15750" windowHeight="9900"/>
+    <workbookView xWindow="480" yWindow="36" windowWidth="15756" windowHeight="9900"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -16,10 +21,10 @@
     <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">100</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Feuil1!$H$8</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Feuil1!$H$11:$H$17</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">Feuil1!$D$5:$D$7</definedName>
-    <definedName name="solver_lhs3" localSheetId="0" hidden="1">Feuil1!$D$5:$D$7</definedName>
-    <definedName name="solver_lhs4" localSheetId="0" hidden="1">Feuil1!$H$11:$H$17</definedName>
+    <definedName name="solver_lhs3" localSheetId="0" hidden="1">Feuil1!$H$8</definedName>
+    <definedName name="solver_lhs4" localSheetId="0" hidden="1">Feuil1!$D$5:$D$7</definedName>
     <definedName name="solver_lin" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
@@ -32,14 +37,14 @@
     <definedName name="solver_opt" localSheetId="0" hidden="1">Feuil1!$F$5</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rel2" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rel3" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel4" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rhs1" localSheetId="0" hidden="1">Feuil1!$F$8</definedName>
-    <definedName name="solver_rhs2" localSheetId="0" hidden="1">Feuil1!$B$5:$B$7</definedName>
-    <definedName name="solver_rhs3" localSheetId="0" hidden="1">Feuil1!$C$5:$C$7</definedName>
-    <definedName name="solver_rhs4" localSheetId="0" hidden="1">Feuil1!$E$11:$E$17</definedName>
+    <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel3" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel4" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">Feuil1!$E$11:$E$17</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">Feuil1!$C$5:$C$7</definedName>
+    <definedName name="solver_rhs3" localSheetId="0" hidden="1">Feuil1!$F$8</definedName>
+    <definedName name="solver_rhs4" localSheetId="0" hidden="1">Feuil1!$B$5:$B$7</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">2</definedName>
@@ -51,12 +56,12 @@
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>% minimal</t>
   </si>
@@ -140,13 +145,34 @@
   </si>
   <si>
     <t>C5-Acier : fabrication d'un acier spécial</t>
+  </si>
+  <si>
+    <t>Programme de Marc Sevaux / Christian Prins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Modifier la Demande en KGs, de 5000 à 4000, on voit alors que les quantités </t>
+  </si>
+  <si>
+    <t>à acheter changent .</t>
+  </si>
+  <si>
+    <t>2. Par contre si on modifie la demande en kgs à 7000, la solution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">devient infaisable, probablement du fait que les stocks en suffisent pas </t>
+  </si>
+  <si>
+    <t>à satisfaire les constraintes exprimées en taux (rates)</t>
+  </si>
+  <si>
+    <t>e huleux</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -175,8 +201,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -201,8 +232,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -225,11 +262,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -264,6 +381,16 @@
     <xf numFmtId="2" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -274,12 +401,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -321,7 +451,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -356,7 +486,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -566,25 +696,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil1"/>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="3.5703125" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="3.5546875" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -598,7 +728,7 @@
       <c r="G3" s="4"/>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>25</v>
       </c>
@@ -616,8 +746,15 @@
         <v>20</v>
       </c>
       <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="J4" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="17"/>
+    </row>
+    <row r="5" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -629,16 +766,21 @@
       </c>
       <c r="D5" s="12">
         <f>SUMPRODUCT(B11:B17,$H$11:$H$17)/$F$8</f>
-        <v>2</v>
+        <v>2.2617625985192262</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="11">
         <f>SUMPRODUCT(F11:F17,H11:H17)</f>
-        <v>5887.574274729116</v>
+        <v>4698.7819441127303</v>
       </c>
       <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="J5" s="18"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="20"/>
+    </row>
+    <row r="6" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
@@ -650,14 +792,21 @@
       </c>
       <c r="D6" s="12">
         <f>SUMPRODUCT(C11:C17,$H$11:$H$17)/$F$8</f>
-        <v>0.59999999999999776</v>
+        <v>0.59999999999999976</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="9"/>
-    </row>
-    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="J6" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="20"/>
+    </row>
+    <row r="7" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
@@ -679,23 +828,37 @@
       <c r="H7" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="J7" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="20"/>
+    </row>
+    <row r="8" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="6">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="12">
         <f>SUM(H11:H17)</f>
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+        <v>4000</v>
+      </c>
+      <c r="J8" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="20"/>
+    </row>
+    <row r="9" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>26</v>
       </c>
@@ -706,8 +869,15 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="J9" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="20"/>
+    </row>
+    <row r="10" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>24</v>
       </c>
@@ -730,8 +900,15 @@
       <c r="H10" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="J10" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="20"/>
+    </row>
+    <row r="11" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
@@ -752,10 +929,15 @@
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="15">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+        <v>3618.820157630762</v>
+      </c>
+      <c r="J11" s="18"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="20"/>
+    </row>
+    <row r="12" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
@@ -776,10 +958,17 @@
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="15">
-        <v>1.1368683772161603E-13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="J12" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="20"/>
+    </row>
+    <row r="13" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
@@ -800,10 +989,15 @@
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="15">
-        <v>397.7630199231034</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+        <v>357.29639359923567</v>
+      </c>
+      <c r="J13" s="18"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="20"/>
+    </row>
+    <row r="14" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
@@ -826,8 +1020,13 @@
       <c r="H14" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="J14" s="18"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="20"/>
+    </row>
+    <row r="15" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
@@ -848,10 +1047,15 @@
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="15">
-        <v>27.61272282418723</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+        <v>23.883448770002381</v>
+      </c>
+      <c r="J15" s="18"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="20"/>
+    </row>
+    <row r="16" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>15</v>
       </c>
@@ -872,10 +1076,15 @@
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="15">
-        <v>574.6242572527093</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="J16" s="18"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="20"/>
+    </row>
+    <row r="17" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>16</v>
       </c>
@@ -898,8 +1107,13 @@
       <c r="H17" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="J17" s="21"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="23"/>
+    </row>
+    <row r="18" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -909,27 +1123,27 @@
       <c r="G18" s="4"/>
       <c r="H18" s="9"/>
     </row>
-    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
